--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9630"/>
+    <workbookView windowWidth="21330" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <t>注册部分已经完成，登录部分出现问题</t>
   </si>
   <si>
-    <t>开始了</t>
+    <t>猴子请来的逗比a</t>
   </si>
   <si>
     <t>胡凯</t>
@@ -227,9 +227,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -262,14 +262,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,8 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +307,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -312,9 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,7 +331,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,8 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,22 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -391,15 +385,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,24 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -725,17 +707,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,6 +748,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -765,27 +767,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,8 +1311,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>李想</t>
+  </si>
+  <si>
+    <t>开始了  逗比</t>
   </si>
   <si>
     <t>组员</t>
@@ -420,6 +423,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,6 +447,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,6 +471,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,6 +501,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,12 +519,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,12 +555,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -534,73 +585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +812,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1524,7 +1527,9 @@
       <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="16"/>
@@ -1536,10 +1541,10 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1561,7 +1566,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1583,10 +1588,10 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1603,13 +1608,13 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1629,7 +1634,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>8</v>
@@ -1650,10 +1655,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1675,13 +1680,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -1699,10 +1704,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
@@ -1721,7 +1726,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1743,7 +1748,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>8</v>
@@ -1762,10 +1767,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1785,13 +1790,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -1809,10 +1814,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1829,7 +1834,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1851,7 +1856,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>8</v>
@@ -1872,10 +1877,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1897,19 +1902,19 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
@@ -1923,7 +1928,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1943,10 +1948,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -1965,7 +1970,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
@@ -1986,16 +1991,16 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2011,13 +2016,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -2035,13 +2040,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2057,13 +2062,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2083,13 +2088,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2104,16 +2109,16 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -2131,13 +2136,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2153,19 +2158,19 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
@@ -2179,13 +2184,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>完成注册信息存入xml，将xml信息取出匹配不了</t>
+  </si>
+  <si>
+    <t>开始了啊</t>
   </si>
   <si>
     <t>组长</t>
@@ -228,8 +231,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -268,29 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -317,6 +297,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +423,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,19 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +501,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,12 +519,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,12 +555,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -534,73 +585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +812,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1500,7 +1503,9 @@
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
       <c r="I8" s="16"/>
@@ -1512,10 +1517,10 @@
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>8</v>
@@ -1536,10 +1541,10 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1561,7 +1566,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1583,10 +1588,10 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1603,13 +1608,13 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1626,10 +1631,10 @@
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>8</v>
@@ -1650,10 +1655,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1675,13 +1680,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -1699,10 +1704,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
@@ -1721,7 +1726,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1740,10 +1745,10 @@
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>8</v>
@@ -1762,10 +1767,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1785,13 +1790,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -1809,10 +1814,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1829,7 +1834,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1848,10 +1853,10 @@
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>8</v>
@@ -1872,10 +1877,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1897,19 +1902,19 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
@@ -1923,7 +1928,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1943,10 +1948,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -1962,10 +1967,10 @@
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
@@ -1986,16 +1991,16 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2011,13 +2016,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -2035,13 +2040,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2057,13 +2062,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2080,16 +2085,16 @@
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2104,16 +2109,16 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -2131,13 +2136,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2153,19 +2158,19 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
@@ -2179,13 +2184,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>李想</t>
+  </si>
+  <si>
+    <t>哈哈哈哈哈哈哈</t>
   </si>
   <si>
     <t>组员</t>
@@ -229,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -348,30 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -401,6 +380,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -501,6 +504,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,72 +583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,26 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -792,6 +775,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,102 +824,102 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,16 +932,16 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,7 +1532,9 @@
       <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="16"/>
@@ -1541,10 +1546,10 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1566,7 +1571,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1588,10 +1593,10 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1608,13 +1613,13 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1634,7 +1639,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>8</v>
@@ -1655,10 +1660,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1680,13 +1685,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -1704,10 +1709,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
@@ -1726,7 +1731,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1748,7 +1753,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>8</v>
@@ -1767,10 +1772,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1790,13 +1795,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -1814,10 +1819,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1834,7 +1839,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1856,7 +1861,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>8</v>
@@ -1877,10 +1882,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1902,19 +1907,19 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
@@ -1928,7 +1933,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1948,10 +1953,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -1970,7 +1975,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
@@ -1991,16 +1996,16 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2016,13 +2021,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -2040,13 +2045,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2062,13 +2067,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2088,13 +2093,13 @@
         <v>18</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2109,16 +2114,16 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -2136,13 +2141,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2158,19 +2163,19 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
@@ -2184,13 +2189,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>李想</t>
-  </si>
-  <si>
-    <t>哈哈哈哈哈哈哈</t>
   </si>
   <si>
     <t>组员</t>
@@ -232,9 +229,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -290,14 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -335,22 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -380,6 +353,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,14 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -474,6 +471,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,79 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,6 +720,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -752,30 +773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -803,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,91 +815,91 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,10 +911,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,22 +923,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,7 +1315,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1532,9 +1529,7 @@
       <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="16"/>
@@ -1546,10 +1541,10 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1558,7 +1553,9 @@
       <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>6666</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="8"/>
       <c r="I10" s="16"/>
@@ -1571,7 +1568,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1593,10 +1590,10 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1613,13 +1610,13 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1639,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>8</v>
@@ -1660,10 +1657,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1685,13 +1682,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -1709,10 +1706,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
@@ -1731,7 +1728,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1753,7 +1750,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>8</v>
@@ -1772,10 +1769,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1795,13 +1792,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -1819,10 +1816,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1839,7 +1836,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1861,7 +1858,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>8</v>
@@ -1882,10 +1879,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1907,19 +1904,19 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
@@ -1933,7 +1930,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1953,10 +1950,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -1975,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
@@ -1996,16 +1993,16 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2021,13 +2018,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -2045,13 +2042,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2067,13 +2064,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2093,13 +2090,13 @@
         <v>18</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2114,16 +2111,16 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -2141,13 +2138,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2163,19 +2160,19 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
@@ -2189,13 +2186,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>未知</t>
+  </si>
+  <si>
+    <t>帅的一批</t>
   </si>
   <si>
     <t>石水山</t>
@@ -1314,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1595,7 +1598,9 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="8"/>
       <c r="I12" s="16"/>
@@ -1608,13 +1613,13 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1634,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>8</v>
@@ -1658,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1680,13 +1685,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -1704,7 +1709,7 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
@@ -1726,7 +1731,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1748,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>8</v>
@@ -1770,7 +1775,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1790,13 +1795,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -1814,10 +1819,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1834,7 +1839,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1856,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>8</v>
@@ -1880,7 +1885,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1902,19 +1907,19 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
@@ -1928,7 +1933,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1948,10 +1953,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -1970,7 +1975,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
@@ -1994,13 +1999,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2016,13 +2021,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -2040,13 +2045,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2062,13 +2067,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2088,13 +2093,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2112,13 +2117,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -2136,13 +2141,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2158,19 +2163,19 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
@@ -2184,13 +2189,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>完成注册信息存入xml，将xml信息取出匹配不了</t>
+  </si>
+  <si>
+    <t>打扫打扫打扫打扫打扫</t>
   </si>
   <si>
     <t>组长</t>
@@ -232,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -267,44 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -328,13 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -353,9 +311,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,14 +334,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,14 +400,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +429,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,18 +489,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,126 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,17 +757,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -795,6 +787,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +818,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,7 +1321,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H6" sqref="H6:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1506,7 +1509,9 @@
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
       <c r="I8" s="16"/>
@@ -1518,10 +1523,10 @@
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>8</v>
@@ -1531,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
@@ -1544,10 +1549,10 @@
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1569,7 +1574,7 @@
     <row r="11" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1591,15 +1596,15 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="8"/>
@@ -1613,13 +1618,13 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1636,10 +1641,10 @@
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>8</v>
@@ -1660,10 +1665,10 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1685,13 +1690,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -1709,10 +1714,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
@@ -1731,7 +1736,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1750,10 +1755,10 @@
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>8</v>
@@ -1772,10 +1777,10 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1795,13 +1800,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -1819,10 +1824,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1839,7 +1844,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1858,10 +1863,10 @@
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>8</v>
@@ -1882,10 +1887,10 @@
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1907,19 +1912,19 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
@@ -1933,7 +1938,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1953,10 +1958,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -1972,10 +1977,10 @@
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
@@ -1996,16 +2001,16 @@
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2021,13 +2026,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -2045,13 +2050,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2067,13 +2072,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2090,16 +2095,16 @@
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2114,16 +2119,16 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -2141,13 +2146,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2163,19 +2168,19 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
@@ -2189,13 +2194,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>

--- a/作业完成情况汇总.xlsx
+++ b/作业完成情况汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>WHJ171103班晚自习作业完成情况汇总表</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>曾繁昌</t>
+  </si>
+  <si>
+    <t>帅</t>
   </si>
   <si>
     <t>熊志祥</t>
@@ -229,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -284,6 +287,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,17 +364,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,22 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -543,6 +546,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -562,24 +583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +746,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -772,26 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,7 +806,7 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,88 +818,88 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,10 +914,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,22 +926,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1314,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1577,7 +1580,9 @@
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="8"/>
       <c r="I11" s="16"/>
@@ -1590,10 +1595,10 @@
     <row r="12" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -1610,13 +1615,13 @@
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
@@ -1636,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>8</v>
@@ -1660,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1682,13 +1687,13 @@
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -1706,10 +1711,10 @@
     <row r="17" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
@@ -1728,7 +1733,7 @@
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1750,7 +1755,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>8</v>
@@ -1772,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1792,13 +1797,13 @@
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
@@ -1816,10 +1821,10 @@
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -1836,7 +1841,7 @@
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1858,7 +1863,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>8</v>
@@ -1882,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1904,19 +1909,19 @@
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
@@ -1930,7 +1935,7 @@
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1950,10 +1955,10 @@
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -1972,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>8</v>
@@ -1996,13 +2001,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2018,13 +2023,13 @@
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
@@ -2042,13 +2047,13 @@
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2064,13 +2069,13 @@
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2090,13 +2095,13 @@
         <v>18</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2114,13 +2119,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -2138,13 +2143,13 @@
     <row r="36" ht="25" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2160,19 +2165,19 @@
     <row r="37" ht="25" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
@@ -2186,13 +2191,13 @@
     <row r="38" ht="25" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
